--- a/case1.xlsx
+++ b/case1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select 2 from dual;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +81,14 @@
   </si>
   <si>
     <t>loginAcct=yangjie&amp;loginPwd=enhjYzEwMA==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"success","msg":"登录成功","data":"","externData":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 3 from dual;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +488,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,22 +538,22 @@
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -564,7 +568,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -576,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>

--- a/case1.xlsx
+++ b/case1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试1" sheetId="1" r:id="rId1"/>
+    <sheet name="zkk" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +90,30 @@
   </si>
   <si>
     <t>select 3 from dual;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html5/apiLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName=qudao23&amp;password=MTIzNDU2Nw==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saveMarkSceneOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourismContractCode=CTSHO-CQ/CJ-1111&amp;tourismContractAmount=6000&amp;departureDate=2017/12/31&amp;customerImg=529140F6-92CD-45D3-ABB5-07C022756E64&amp;contractImg=D79A54CB-0559-4C36-96A2-27BB24F079CE&amp;productId=888&amp;childrenNum=3&amp;adultNum=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +141,14 @@
       <color theme="3" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,4 +1019,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="92.375" customWidth="1"/>
+    <col min="5" max="5" width="72.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/case1.xlsx
+++ b/case1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FLASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"status":"success","msg":"登录成功","data":"","externData":null}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +98,6 @@
   </si>
   <si>
     <t>userName=qudao23&amp;password=MTIzNDU2Nw==</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -277,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,19 +569,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -616,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -1025,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1071,19 +1063,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1093,19 +1085,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>

--- a/case1.xlsx
+++ b/case1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E08C2FFA-D007-4F12-9260-D3F5FA4330AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试1" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,14 +107,30 @@
   </si>
   <si>
     <t>tourismContractCode=CTSHO-CQ/CJ-1111&amp;tourismContractAmount=6000&amp;departureDate=2017/12/31&amp;customerImg=529140F6-92CD-45D3-ABB5-07C022756E64&amp;contractImg=D79A54CB-0559-4C36-96A2-27BB24F079CE&amp;productId=888&amp;childrenNum=3&amp;adultNum=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否忽略字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略字段检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>externData,data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +160,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,6 +247,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -269,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,9 +353,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,9 +613,12 @@
     <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="36" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,16 +643,40 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+    </row>
+    <row r="2" spans="1:36" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -585,16 +697,40 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="I2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -619,16 +755,14 @@
       <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -639,14 +773,8 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -657,14 +785,8 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -675,14 +797,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -693,14 +809,8 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -711,14 +821,8 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -729,14 +833,8 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -747,14 +845,8 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -765,14 +857,8 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -783,14 +869,8 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -801,14 +881,8 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -819,14 +893,8 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -837,14 +905,8 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -855,14 +917,8 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -873,14 +929,8 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -891,14 +941,8 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -909,14 +953,8 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -927,14 +965,8 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -945,14 +977,8 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -963,14 +989,8 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -981,14 +1001,8 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -999,12 +1013,6 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
